--- a/pred_ohlcv/54_21/2020-01-19 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AE ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-128297.0356959186</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-128293.0356959186</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-107943.6777959186</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>82911.09663996455</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>82387.30593996456</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>81229.47143996456</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>78396.88623996456</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>75321.87403996456</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>62120.29573996456</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>59050.29453996456</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AE ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>81911.10665727578</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>77176.41055727578</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>78949.98045727579</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>89358.72313996455</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>82911.09663996455</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>82387.30593996456</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>81229.47143996456</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>75321.87403996456</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>62120.29573996456</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>59050.29453996456</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
